--- a/Petrobras 2017-2024/Avaliação Petrobras.xlsx
+++ b/Petrobras 2017-2024/Avaliação Petrobras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Faculdade\5 Periodo\Finanças Empresariais II\Trabalhos\Avaliação de Empresas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3658110-85CF-43A1-9AEF-D7E1936665A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CD7139-F3FC-4A29-B613-6207E82948E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="893" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="893" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balanço Patrimonial" sheetId="23" r:id="rId1"/>
@@ -70,9 +70,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLRICHVALUE" count="45">
     <bk>
@@ -391,20 +390,6 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </cellMetadata>
   <valueMetadata count="45">
     <bk>
       <rc t="1" v="0"/>
@@ -546,7 +531,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="147">
   <si>
     <t>Receita de vendas</t>
   </si>
@@ -920,9 +905,6 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>Tesouraria</t>
-  </si>
-  <si>
     <t>MLB</t>
   </si>
   <si>
@@ -984,6 +966,111 @@
   </si>
   <si>
     <t>PASSIVO OPERACIONAL - R$ milhões</t>
+  </si>
+  <si>
+    <r>
+      <t>Lucro Bruto Operacional - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF75787B"/>
+        <rFont val="Petrobras Sans"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF75787B"/>
+        <rFont val="Petrobras Sans"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF75787B"/>
+        <rFont val="Petrobras Sans"/>
+      </rPr>
+      <t>Nível</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Capacidade de Autofinanciamento - 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF75787B"/>
+        <rFont val="Petrobras Sans"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF75787B"/>
+        <rFont val="Petrobras Sans"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF75787B"/>
+        <rFont val="Petrobras Sans"/>
+      </rPr>
+      <t>Nível</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Autofinanciamento - 3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF75787B"/>
+        <rFont val="Petrobras Sans"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF75787B"/>
+        <rFont val="Petrobras Sans"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF75787B"/>
+        <rFont val="Petrobras Sans"/>
+      </rPr>
+      <t>Nível</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Dividendos Distriuidos no exercício</t>
+  </si>
+  <si>
+    <t>Depreciação</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1083,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;R$ &quot;* #,##0_);_(&quot;R$ &quot;* \(#,##0\);_(&quot;R$ &quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,6 +1176,24 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color rgb="FF75787B"/>
+      <name val="Petrobras Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF75787B"/>
+      <name val="Petrobras Sans"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF75787B"/>
+      <name val="Petrobras Sans"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1287,7 +1392,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1391,6 +1496,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1427,11 +1538,14 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -3574,76 +3688,6 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>6350</xdr:colOff>
-          <xdr:row>84</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="Imagem 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F50C13-A841-5722-7402-22D4523A50B6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$J$41" spid="_x0000_s10245"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="609600" y="8178800"/>
-              <a:ext cx="7804150" cy="7810500"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4370,7 +4414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
@@ -4413,19 +4457,19 @@
       <c r="I2" s="24">
         <v>2017</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1">
       <c r="A3" s="7" t="s">
@@ -4485,29 +4529,29 @@
         <v>28081</v>
       </c>
       <c r="J4" s="14"/>
-      <c r="K4" s="39" t="e" vm="1">
+      <c r="K4" s="41" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="39" t="e" vm="2">
+      <c r="Q4" s="41" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="41"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="43"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="39" t="e" vm="3">
+      <c r="W4" s="41" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="41"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="43"/>
     </row>
     <row r="5" spans="1:27" ht="15.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
@@ -4537,23 +4581,23 @@
       <c r="I5" s="9">
         <v>16446</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="46"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="46"/>
     </row>
     <row r="6" spans="1:27" ht="15.5" thickTop="1" thickBot="1">
       <c r="A6" s="7" t="s">
@@ -4583,23 +4627,23 @@
       <c r="I6" s="9">
         <v>675606</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="46"/>
       <c r="V6" s="15"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="46"/>
     </row>
     <row r="7" spans="1:27" ht="15.5" thickTop="1" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -4629,45 +4673,45 @@
       <c r="I7" s="9">
         <v>831515</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="46"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickTop="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="46"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="46"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="11">
@@ -4679,23 +4723,23 @@
       <c r="C9" s="11">
         <v>5</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="46"/>
       <c r="P9" s="15"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="46"/>
       <c r="V9" s="15"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="46"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="23" t="s">
@@ -4725,23 +4769,23 @@
       <c r="I10" s="24">
         <v>2017</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="46"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="46"/>
     </row>
     <row r="11" spans="1:27" ht="15" thickBot="1">
       <c r="A11" s="7" t="s">
@@ -4771,23 +4815,23 @@
       <c r="I11" s="9">
         <v>82535</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="46"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="46"/>
     </row>
     <row r="12" spans="1:27" ht="15.5" thickTop="1" thickBot="1">
       <c r="A12" s="7" t="s">
@@ -4817,23 +4861,23 @@
       <c r="I12" s="9">
         <v>19077</v>
       </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="49"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="49"/>
       <c r="V12" s="15"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="49"/>
     </row>
     <row r="13" spans="1:27" ht="15.5" thickTop="1" thickBot="1">
       <c r="A13" s="7" t="s">
@@ -4909,29 +4953,29 @@
       <c r="I14" s="9">
         <v>479371</v>
       </c>
-      <c r="K14" s="39" t="e" vm="4">
+      <c r="K14" s="41" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="41"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="39" t="e" vm="5">
+      <c r="Q14" s="41" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="41"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="43"/>
       <c r="V14" s="15"/>
-      <c r="W14" s="39" t="e" vm="6">
+      <c r="W14" s="41" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="41"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="43"/>
     </row>
     <row r="15" spans="1:27" ht="15.5" thickTop="1" thickBot="1">
       <c r="A15" s="7" t="s">
@@ -4963,23 +5007,23 @@
         <f>338239*(3/4)</f>
         <v>253679.25</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="46"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="46"/>
       <c r="V15" s="15"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="46"/>
     </row>
     <row r="16" spans="1:27" ht="15.5" thickTop="1" thickBot="1">
       <c r="A16" s="7" t="s">
@@ -5011,23 +5055,23 @@
         <f>338239*(1/4)</f>
         <v>84559.75</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="46"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="46"/>
       <c r="V16" s="15"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="46"/>
     </row>
     <row r="17" spans="1:27" ht="15.5" thickTop="1" thickBot="1">
       <c r="A17" s="7" t="s">
@@ -5057,23 +5101,23 @@
       <c r="I17" s="9">
         <v>269609</v>
       </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="46"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="46"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="46"/>
     </row>
     <row r="18" spans="1:27" ht="15.5" thickTop="1" thickBot="1">
       <c r="A18" s="7" t="s">
@@ -5103,100 +5147,100 @@
       <c r="I18" s="9">
         <v>831515</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="46"/>
       <c r="V18" s="15"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="46"/>
     </row>
     <row r="19" spans="1:27" ht="15" thickTop="1">
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="46"/>
       <c r="V19" s="15"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="46"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="46"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="46"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="46"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="13"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="46"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="46"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="46"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="49"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="49"/>
     </row>
     <row r="23" spans="1:27">
       <c r="K23" s="15"/>
@@ -5238,85 +5282,85 @@
     </row>
     <row r="25" spans="1:27">
       <c r="P25" s="15"/>
-      <c r="Q25" s="39" t="e" vm="7">
+      <c r="Q25" s="41" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="41"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="43"/>
       <c r="V25" s="15"/>
     </row>
     <row r="26" spans="1:27">
       <c r="P26" s="15"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="46"/>
       <c r="V26" s="15"/>
     </row>
     <row r="27" spans="1:27">
       <c r="P27" s="15"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="46"/>
       <c r="V27" s="15"/>
     </row>
     <row r="28" spans="1:27">
       <c r="P28" s="15"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="46"/>
       <c r="V28" s="15"/>
     </row>
     <row r="29" spans="1:27">
       <c r="P29" s="15"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="46"/>
       <c r="V29" s="15"/>
     </row>
     <row r="30" spans="1:27">
       <c r="P30" s="15"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="46"/>
       <c r="V30" s="15"/>
     </row>
     <row r="31" spans="1:27">
       <c r="P31" s="15"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="46"/>
       <c r="V31" s="15"/>
     </row>
     <row r="32" spans="1:27">
       <c r="P32" s="15"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="46"/>
       <c r="V32" s="15"/>
     </row>
     <row r="33" spans="1:22">
       <c r="P33" s="15"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="49"/>
       <c r="V33" s="15"/>
     </row>
     <row r="44" spans="1:22">
@@ -5350,7 +5394,7 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" s="36">
         <v>155909</v>
@@ -5379,7 +5423,7 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" s="36">
         <v>675606</v>
@@ -5408,7 +5452,7 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="36">
         <v>82535</v>
@@ -5437,7 +5481,7 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B48" s="36">
         <v>479371</v>
@@ -5518,7 +5562,7 @@
   <dimension ref="B2:V23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5561,20 +5605,20 @@
       <c r="J2" s="25">
         <v>2017</v>
       </c>
-      <c r="L2" s="43" t="e" vm="43">
+      <c r="L2" s="45" t="e" vm="43">
         <v>#VALUE!</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="R2" s="43" t="e" vm="44">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="R2" s="45" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
     </row>
     <row r="3" spans="2:22" ht="15" thickBot="1">
       <c r="B3" s="26" t="s">
@@ -5612,16 +5656,16 @@
         <f>'Modelo de Fleuriet'!J41-'Modelo de Fleuriet'!J21</f>
         <v>112272</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
     </row>
     <row r="4" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B4" s="26" t="s">
@@ -5659,16 +5703,16 @@
         <f>'Modelo de Fleuriet'!J14-'Modelo de Fleuriet'!J29</f>
         <v>41850</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
     </row>
     <row r="5" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B5" s="26" t="s">
@@ -5706,85 +5750,85 @@
         <f t="shared" si="0"/>
         <v>70422</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
     </row>
     <row r="6" spans="2:22" ht="15" thickTop="1">
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
     </row>
     <row r="7" spans="2:22">
       <c r="B7" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
     </row>
     <row r="8" spans="2:22">
       <c r="B8" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
     </row>
     <row r="10" spans="2:22">
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
     </row>
     <row r="11" spans="2:22">
       <c r="F11" s="31" t="s">
@@ -5819,13 +5863,13 @@
       <c r="J12" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="O12" s="43" t="e" vm="45">
+      <c r="O12" s="45" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
     </row>
     <row r="13" spans="2:22">
       <c r="F13" s="32">
@@ -5843,11 +5887,11 @@
       <c r="J13" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
     </row>
     <row r="14" spans="2:22">
       <c r="F14" s="32">
@@ -5865,11 +5909,11 @@
       <c r="J14" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
     </row>
     <row r="15" spans="2:22">
       <c r="F15" s="32">
@@ -5887,11 +5931,11 @@
       <c r="J15" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
     </row>
     <row r="16" spans="2:22">
       <c r="F16" s="32">
@@ -5909,11 +5953,11 @@
       <c r="J16" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
     </row>
     <row r="17" spans="5:19">
       <c r="F17" s="32">
@@ -5931,40 +5975,40 @@
       <c r="J17" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
     </row>
     <row r="18" spans="5:19">
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
     </row>
     <row r="19" spans="5:19">
       <c r="E19" s="33"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
     </row>
     <row r="20" spans="5:19">
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
     </row>
     <row r="21" spans="5:19">
       <c r="E21" s="33"/>
@@ -6024,49 +6068,49 @@
         <v>119</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="H2" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="I2" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="J2" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="K2" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="M2" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="N2" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="O2" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="P2" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="Q2" s="36" t="s">
         <v>134</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>135</v>
       </c>
       <c r="R2" s="36" t="s">
         <v>106</v>
@@ -6559,8 +6603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6760,10 +6804,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7386,12 +7430,6 @@
     </row>
     <row r="23" spans="1:9" ht="15" thickTop="1">
       <c r="B23" s="12"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="H25">
-        <f>B22/B18</f>
-        <v>-0.44875168240957425</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7406,8 +7444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3838308F-2225-47BD-81C0-A7D22F6379D1}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7482,24 +7520,24 @@
         <f>(DRE!I3-(ABS(DRE!I4)))/DRE!I3</f>
         <v>0.32286434374944922</v>
       </c>
-      <c r="K2" s="43" t="e" vm="8">
+      <c r="K2" s="45" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="P2" s="43" t="e" vm="9">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="P2" s="45" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="U2" s="43" t="e" vm="10">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="U2" s="45" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
     </row>
     <row r="3" spans="1:24" ht="15.5" thickTop="1" thickBot="1">
       <c r="A3" s="16" t="s">
@@ -7537,18 +7575,18 @@
         <f>DRE!I14/DRE!I3</f>
         <v>0.12557147640952432</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
     </row>
     <row r="4" spans="1:24" ht="15.5" thickTop="1" thickBot="1">
       <c r="A4" s="16" t="s">
@@ -7586,18 +7624,18 @@
         <f>DRE!I22/DRE!I3</f>
         <v>1.3288919438128976E-3</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
     </row>
     <row r="5" spans="1:24" ht="15.5" thickTop="1" thickBot="1">
       <c r="A5" s="16" t="s">
@@ -7635,18 +7673,18 @@
         <f>DRE!I22/'Balanço Patrimonial'!I17</f>
         <v>1.3983212726578118E-3</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
     </row>
     <row r="6" spans="1:24" ht="15.5" thickTop="1" thickBot="1">
       <c r="A6" s="16" t="s">
@@ -7684,66 +7722,66 @@
         <f>DRE!I22/'Balanço Patrimonial'!I7</f>
         <v>4.5338929544265586E-4</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
     </row>
     <row r="7" spans="1:24" ht="15" thickTop="1">
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
     </row>
     <row r="8" spans="1:24" ht="20" customHeight="1">
       <c r="A8" s="15" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
     </row>
     <row r="9" spans="1:24" ht="20" customHeight="1">
       <c r="A9" s="15" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
     </row>
     <row r="10" spans="1:24" ht="20" customHeight="1">
       <c r="A10" s="15" t="e" vm="13">
@@ -7754,91 +7792,91 @@
       <c r="A11" s="15" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="43" t="e" vm="15">
+      <c r="M11" s="45" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="S11" s="43" t="e" vm="16">
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="S11" s="45" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
     </row>
     <row r="12" spans="1:24" ht="20" customHeight="1">
       <c r="A12" s="15" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
     </row>
     <row r="17" spans="13:22">
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
     </row>
     <row r="18" spans="13:22">
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7857,7 +7895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CECF99-AD22-4337-99BE-055321E0B4FB}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -7932,18 +7970,18 @@
         <f>('Balanço Patrimonial'!I18-'Balanço Patrimonial'!I17)/'Balanço Patrimonial'!I7</f>
         <v>0.67576171205570557</v>
       </c>
-      <c r="K2" s="43" t="e" vm="18">
+      <c r="K2" s="45" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="P2" s="43" t="e" vm="19">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="P2" s="45" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
     </row>
     <row r="3" spans="1:19" ht="15.5" thickTop="1" thickBot="1">
       <c r="A3" s="16" t="s">
@@ -7981,14 +8019,14 @@
         <f>('Balanço Patrimonial'!I15+'Balanço Patrimonial'!I13)/'Balanço Patrimonial'!I17</f>
         <v>1.0271291017733089</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
     </row>
     <row r="4" spans="1:19" ht="15.5" thickTop="1" thickBot="1">
       <c r="A4" s="16" t="s">
@@ -8026,14 +8064,14 @@
         <f>'Balanço Patrimonial'!I14/'Balanço Patrimonial'!I7</f>
         <v>0.57650312982928753</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
     </row>
     <row r="5" spans="1:19" ht="15.5" thickTop="1" thickBot="1">
       <c r="A5" s="16" t="s">
@@ -8071,63 +8109,63 @@
         <f>DRE!I14/(ABS(DRE!I16))</f>
         <v>1.5087243774352024</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickTop="1">
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
     </row>
     <row r="7" spans="1:19" ht="20" customHeight="1">
       <c r="A7" s="15" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
     </row>
     <row r="8" spans="1:19" ht="20" customHeight="1">
       <c r="A8" s="15" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
     </row>
     <row r="9" spans="1:19" ht="20" customHeight="1">
       <c r="A9" s="15" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
     </row>
     <row r="10" spans="1:19" ht="20" customHeight="1">
       <c r="A10" s="15" t="e" vm="23">
@@ -8135,88 +8173,88 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="K11" s="43" t="e" vm="24">
+      <c r="K11" s="45" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="P11" s="43" t="e" vm="25">
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="P11" s="45" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
     </row>
     <row r="17" spans="11:19">
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
     </row>
     <row r="18" spans="11:19">
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8234,8 +8272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373AE4D9-F0C2-43C6-AE0F-CD6FBDA66322}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8310,18 +8348,18 @@
         <f>'Balanço Patrimonial'!I5/(DRE!I3/360)</f>
         <v>20.869454872310051</v>
       </c>
-      <c r="K2" s="43" t="e" vm="26">
+      <c r="K2" s="45" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="P2" s="43" t="e" vm="27">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="P2" s="45" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
     </row>
     <row r="3" spans="1:19" ht="15.5" thickTop="1" thickBot="1">
       <c r="A3" s="16" t="s">
@@ -8359,14 +8397,14 @@
         <f>'Balanço Patrimonial'!I12/((ABS(DRE!I4)+('Balanço Patrimonial'!I4-27622))/360)</f>
         <v>35.66553627719297</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
     </row>
     <row r="4" spans="1:19" ht="15.5" thickTop="1" thickBot="1">
       <c r="A4" s="16" t="s">
@@ -8404,14 +8442,14 @@
         <f>ABS(DRE!I4)/(('Balanço Patrimonial'!I4+'Balanço Patrimonial'!J4)/2)</f>
         <v>13.681848937003668</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
     </row>
     <row r="5" spans="1:19" ht="15.5" thickTop="1" thickBot="1">
       <c r="A5" s="16" t="s">
@@ -8449,63 +8487,63 @@
         <f t="shared" si="0"/>
         <v>26.312233211868818</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickTop="1">
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
     </row>
     <row r="7" spans="1:19" ht="20" customHeight="1">
       <c r="A7" s="15" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
     </row>
     <row r="8" spans="1:19" ht="20" customHeight="1">
       <c r="A8" s="15" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
     </row>
     <row r="9" spans="1:19" ht="20" customHeight="1">
       <c r="A9" s="15" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
     </row>
     <row r="10" spans="1:19" ht="19.5" customHeight="1">
       <c r="A10" s="15" t="e" vm="31">
@@ -8513,88 +8551,88 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="K11" s="43" t="e" vm="32">
+      <c r="K11" s="45" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="P11" s="43" t="e" vm="33">
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="P11" s="45" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
     </row>
     <row r="17" spans="11:19">
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
     </row>
     <row r="18" spans="11:19">
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8612,8 +8650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86267F7E-BDAE-4E81-BFDE-B78365C0B450}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8687,12 +8725,12 @@
         <f>'Balanço Patrimonial'!I3/'Balanço Patrimonial'!I11</f>
         <v>1.8890046646877083</v>
       </c>
-      <c r="K2" s="43" t="e" vm="34">
+      <c r="K2" s="45" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" thickTop="1" thickBot="1">
       <c r="A3" s="7" t="s">
@@ -8730,102 +8768,102 @@
         <f>('Balanço Patrimonial'!I3-'Balanço Patrimonial'!I4)/'Balanço Patrimonial'!I11</f>
         <v>1.5487732477130913</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickTop="1">
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1">
       <c r="A5" s="15" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1">
       <c r="A6" s="15" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="K11" s="43" t="e" vm="37">
+      <c r="K11" s="45" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="11:14">
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
     </row>
     <row r="18" spans="11:14">
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8855,10 +8893,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="52"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="20" t="s">
@@ -8910,11 +8948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68600275-C2A2-4CEE-9347-69E3980EAA23}">
-  <dimension ref="B2:Z42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68600275-C2A2-4CEE-9347-69E3980EAA23}">
+  <dimension ref="B2:AF42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8923,50 +8961,79 @@
     <col min="2" max="2" width="41.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="22" width="8.7265625" style="15"/>
     <col min="23" max="23" width="26.08984375" style="15" customWidth="1"/>
-    <col min="24" max="16384" width="8.7265625" style="15"/>
+    <col min="24" max="24" width="59.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26">
-      <c r="B2" s="51" t="s">
+    <row r="2" spans="2:32">
+      <c r="B2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="40">
         <v>2024</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="40">
         <v>2023</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="40">
         <v>2022</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="40">
         <v>2021</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="40">
         <v>2020</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="40">
         <v>2019</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="40">
         <v>2018</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="40">
         <v>2017</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" thickBot="1">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="X2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="25">
+        <v>2024</v>
+      </c>
+      <c r="Z2" s="25">
+        <v>2023</v>
+      </c>
+      <c r="AA2" s="25">
+        <v>2022</v>
+      </c>
+      <c r="AB2" s="25">
+        <v>2021</v>
+      </c>
+      <c r="AC2" s="25">
+        <v>2020</v>
+      </c>
+      <c r="AD2" s="25">
+        <v>2019</v>
+      </c>
+      <c r="AE2" s="25">
+        <v>2018</v>
+      </c>
+      <c r="AF2" s="25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="15" thickBot="1">
       <c r="B3" s="26" t="s">
         <v>71</v>
       </c>
@@ -8994,8 +9061,35 @@
       <c r="J3" s="28">
         <v>74494</v>
       </c>
-    </row>
-    <row r="4" spans="2:26" ht="15.5" thickTop="1" thickBot="1">
+      <c r="X3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="27">
+        <v>490829</v>
+      </c>
+      <c r="Z3" s="28">
+        <v>511994</v>
+      </c>
+      <c r="AA3" s="27">
+        <v>641256</v>
+      </c>
+      <c r="AB3" s="28">
+        <v>452668</v>
+      </c>
+      <c r="AC3" s="27">
+        <v>272069</v>
+      </c>
+      <c r="AD3" s="28">
+        <v>302245</v>
+      </c>
+      <c r="AE3" s="27">
+        <v>349836</v>
+      </c>
+      <c r="AF3" s="27">
+        <v>283695</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" ht="15.5" thickTop="1" thickBot="1">
       <c r="B4" s="26" t="s">
         <v>72</v>
       </c>
@@ -9023,22 +9117,49 @@
       <c r="J4" s="28">
         <v>6237</v>
       </c>
-      <c r="L4" s="43" t="e" vm="38">
+      <c r="L4" s="45" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="R4" s="43" t="e" vm="39">
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="R4" s="45" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-    </row>
-    <row r="5" spans="2:26" ht="15.5" thickTop="1" thickBot="1">
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="X4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="54">
+        <v>-244367</v>
+      </c>
+      <c r="Z4" s="55">
+        <v>-242061</v>
+      </c>
+      <c r="AA4" s="54">
+        <v>-307156</v>
+      </c>
+      <c r="AB4" s="55">
+        <v>-233031</v>
+      </c>
+      <c r="AC4" s="54">
+        <v>-148107</v>
+      </c>
+      <c r="AD4" s="55">
+        <v>-180140</v>
+      </c>
+      <c r="AE4" s="54">
+        <v>-225293</v>
+      </c>
+      <c r="AF4" s="54">
+        <v>-192100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" ht="15.5" thickTop="1" thickBot="1">
       <c r="B5" s="26" t="s">
         <v>73</v>
       </c>
@@ -9066,18 +9187,45 @@
       <c r="J5" s="28">
         <v>23244</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-    </row>
-    <row r="6" spans="2:26" ht="15.5" thickTop="1" thickBot="1">
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="X5" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="54">
+        <v>-26134</v>
+      </c>
+      <c r="Z5" s="55">
+        <v>-25163</v>
+      </c>
+      <c r="AA5" s="54">
+        <v>-25448</v>
+      </c>
+      <c r="AB5" s="55">
+        <v>-22806</v>
+      </c>
+      <c r="AC5" s="54">
+        <v>-25020</v>
+      </c>
+      <c r="AD5" s="55">
+        <v>-17746</v>
+      </c>
+      <c r="AE5" s="54">
+        <v>-16861</v>
+      </c>
+      <c r="AF5" s="54">
+        <v>-14510</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" ht="15.5" thickTop="1" thickBot="1">
       <c r="B6" s="26"/>
       <c r="C6" s="27">
         <f>SUM(C3:C5)</f>
@@ -9111,71 +9259,111 @@
         <f t="shared" si="0"/>
         <v>103975</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="Y6" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z6" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" ht="15" thickTop="1">
-      <c r="B7" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="52">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="X6" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="54">
+        <v>-9931</v>
+      </c>
+      <c r="Z6" s="55">
+        <v>-7952</v>
+      </c>
+      <c r="AA6" s="54">
+        <v>-6877</v>
+      </c>
+      <c r="AB6" s="55">
+        <v>-6340</v>
+      </c>
+      <c r="AC6" s="54">
+        <v>-5525</v>
+      </c>
+      <c r="AD6" s="55">
+        <v>-8368</v>
+      </c>
+      <c r="AE6" s="54">
+        <v>-8932</v>
+      </c>
+      <c r="AF6" s="54">
+        <v>-9314</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" ht="15.5" thickTop="1" thickBot="1">
+      <c r="B7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="40">
         <v>2024</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="40">
         <v>2023</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="40">
         <v>2022</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="40">
         <v>2021</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="40">
         <v>2020</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="40">
         <v>2019</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="40">
         <v>2018</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="40">
         <v>2017</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="Y7" s="15" cm="1">
-        <f t="array" ref="Y7:Y14">TRANSPOSE(C2:J2)</f>
-        <v>2024</v>
-      </c>
-      <c r="Z7" s="15" cm="1">
-        <f t="array" ref="Z7:Z14">TRANSPOSE(C6:J6)</f>
-        <v>62538</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" ht="15" thickBot="1">
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="X7" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y7" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z7" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA7" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB7" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC7" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD7" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE7" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF7" s="54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" ht="15" thickBot="1">
       <c r="B8" s="26" t="s">
         <v>74</v>
       </c>
@@ -9203,24 +9391,53 @@
       <c r="J8" s="28">
         <v>16446</v>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="Y8" s="15">
-        <v>2023</v>
-      </c>
-      <c r="Z8" s="15">
-        <v>96186</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" ht="15.5" thickTop="1" thickBot="1">
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="X8" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y8" s="27">
+        <f>SUM(Y3:Y7)</f>
+        <v>210397</v>
+      </c>
+      <c r="Z8" s="27">
+        <f t="shared" ref="Z8:AF8" si="1">SUM(Z3:Z7)</f>
+        <v>236818</v>
+      </c>
+      <c r="AA8" s="27">
+        <f t="shared" si="1"/>
+        <v>301775</v>
+      </c>
+      <c r="AB8" s="27">
+        <f t="shared" si="1"/>
+        <v>190491</v>
+      </c>
+      <c r="AC8" s="27">
+        <f t="shared" si="1"/>
+        <v>93417</v>
+      </c>
+      <c r="AD8" s="27">
+        <f t="shared" si="1"/>
+        <v>95991</v>
+      </c>
+      <c r="AE8" s="27">
+        <f t="shared" si="1"/>
+        <v>98750</v>
+      </c>
+      <c r="AF8" s="27">
+        <f t="shared" si="1"/>
+        <v>67771</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" ht="15.5" thickTop="1" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>75</v>
       </c>
@@ -9248,24 +9465,45 @@
       <c r="J9" s="28">
         <v>28081</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="Y9" s="15">
-        <v>2022</v>
-      </c>
-      <c r="Z9" s="15">
-        <v>74849</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" ht="15.5" thickTop="1" thickBot="1">
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="X9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="54">
+        <v>10488</v>
+      </c>
+      <c r="Z9" s="55">
+        <v>10821</v>
+      </c>
+      <c r="AA9" s="54">
+        <v>9420</v>
+      </c>
+      <c r="AB9" s="55">
+        <v>4458</v>
+      </c>
+      <c r="AC9" s="54">
+        <v>2821</v>
+      </c>
+      <c r="AD9" s="55">
+        <v>5271</v>
+      </c>
+      <c r="AE9" s="54">
+        <v>11647</v>
+      </c>
+      <c r="AF9" s="54">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" ht="15.5" thickTop="1" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>76</v>
       </c>
@@ -9293,24 +9531,45 @@
       <c r="J10" s="28">
         <v>8062</v>
       </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="Y10" s="15">
-        <v>2021</v>
-      </c>
-      <c r="Z10" s="15">
-        <v>82356</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" ht="15.5" thickTop="1" thickBot="1">
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="X10" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="54">
+        <v>-32093</v>
+      </c>
+      <c r="Z10" s="55">
+        <v>-19542</v>
+      </c>
+      <c r="AA10" s="54">
+        <v>-18040</v>
+      </c>
+      <c r="AB10" s="55">
+        <v>-27636</v>
+      </c>
+      <c r="AC10" s="54">
+        <v>-31108</v>
+      </c>
+      <c r="AD10" s="55">
+        <v>-27878</v>
+      </c>
+      <c r="AE10" s="54">
+        <v>-20898</v>
+      </c>
+      <c r="AF10" s="54">
+        <v>-23612</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" ht="15.5" thickTop="1" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>77</v>
       </c>
@@ -9338,24 +9597,45 @@
       <c r="J11" s="28">
         <v>17592</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="Y11" s="15">
-        <v>2020</v>
-      </c>
-      <c r="Z11" s="15">
-        <v>86031</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" ht="15.5" thickTop="1" thickBot="1">
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="X11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>-60866</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>-3140</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>-10637</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>-36078</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>-21297</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>-11852</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>-11849</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>-11324</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" ht="15.5" thickTop="1" thickBot="1">
       <c r="B12" s="26" t="s">
         <v>78</v>
       </c>
@@ -9383,24 +9663,45 @@
       <c r="J12" s="28">
         <v>4997</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="Y12" s="15">
-        <v>2019</v>
-      </c>
-      <c r="Z12" s="15">
-        <v>51307</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" ht="15.5" thickTop="1" thickBot="1">
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="X12" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="54">
+        <v>-17721</v>
+      </c>
+      <c r="Z12" s="55">
+        <v>-52315</v>
+      </c>
+      <c r="AA12" s="54">
+        <v>-85993</v>
+      </c>
+      <c r="AB12" s="55">
+        <v>-44311</v>
+      </c>
+      <c r="AC12" s="54">
+        <v>6209</v>
+      </c>
+      <c r="AD12" s="55">
+        <v>-16400</v>
+      </c>
+      <c r="AE12" s="54">
+        <v>-17078</v>
+      </c>
+      <c r="AF12" s="54">
+        <v>-5797</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" ht="15.5" thickTop="1" thickBot="1">
       <c r="B13" s="26" t="s">
         <v>79</v>
       </c>
@@ -9428,108 +9729,193 @@
       <c r="J13" s="28">
         <v>10202</v>
       </c>
-      <c r="Y13" s="15">
-        <v>2018</v>
-      </c>
-      <c r="Z13" s="15">
-        <v>72348</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" ht="15.5" thickTop="1" thickBot="1">
+      <c r="X13" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" s="27">
+        <f>SUM(Y8:Y12)</f>
+        <v>110205</v>
+      </c>
+      <c r="Z13" s="27">
+        <f>SUM(Z8:Z12)</f>
+        <v>172642</v>
+      </c>
+      <c r="AA13" s="27">
+        <f>SUM(AA8:AA12)</f>
+        <v>196525</v>
+      </c>
+      <c r="AB13" s="27">
+        <f>SUM(AB8:AB12)</f>
+        <v>86924</v>
+      </c>
+      <c r="AC13" s="27">
+        <f>SUM(AC8:AC12)</f>
+        <v>50042</v>
+      </c>
+      <c r="AD13" s="27">
+        <f>SUM(AD8:AD12)</f>
+        <v>45132</v>
+      </c>
+      <c r="AE13" s="27">
+        <f>SUM(AE8:AE12)</f>
+        <v>60572</v>
+      </c>
+      <c r="AF13" s="27">
+        <f>SUM(AF8:AF12)</f>
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" ht="15.5" thickTop="1" thickBot="1">
       <c r="B14" s="26"/>
       <c r="C14" s="27">
         <f>SUM(C8:C13)</f>
         <v>104049</v>
       </c>
       <c r="D14" s="27">
-        <f t="shared" ref="D14:J14" si="1">SUM(D8:D13)</f>
+        <f t="shared" ref="D14:J14" si="2">SUM(D8:D13)</f>
         <v>93025</v>
       </c>
       <c r="E14" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114965</v>
       </c>
       <c r="F14" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108923</v>
       </c>
       <c r="G14" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81342</v>
       </c>
       <c r="H14" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84868</v>
       </c>
       <c r="I14" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89580</v>
       </c>
       <c r="J14" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85380</v>
       </c>
-      <c r="L14" s="43" t="e" vm="40">
+      <c r="L14" s="45" t="e" vm="40">
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="R14" s="43" t="e" vm="41">
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="R14" s="45" t="e" vm="41">
         <v>#VALUE!</v>
       </c>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="Y14" s="15">
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="X14" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y14" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z14" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA14" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB14" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC14" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD14" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE14" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF14" s="54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" ht="15.5" thickTop="1" thickBot="1">
+      <c r="B15" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="40">
+        <v>2024</v>
+      </c>
+      <c r="D15" s="40">
+        <v>2023</v>
+      </c>
+      <c r="E15" s="40">
+        <v>2022</v>
+      </c>
+      <c r="F15" s="40">
+        <v>2021</v>
+      </c>
+      <c r="G15" s="40">
+        <v>2020</v>
+      </c>
+      <c r="H15" s="40">
+        <v>2019</v>
+      </c>
+      <c r="I15" s="40">
+        <v>2018</v>
+      </c>
+      <c r="J15" s="40">
         <v>2017</v>
       </c>
-      <c r="Z14" s="15">
-        <v>103975</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" ht="15" thickTop="1">
-      <c r="B15" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="52">
-        <v>2024</v>
-      </c>
-      <c r="D15" s="52">
-        <v>2023</v>
-      </c>
-      <c r="E15" s="52">
-        <v>2022</v>
-      </c>
-      <c r="F15" s="52">
-        <v>2021</v>
-      </c>
-      <c r="G15" s="52">
-        <v>2020</v>
-      </c>
-      <c r="H15" s="52">
-        <v>2019</v>
-      </c>
-      <c r="I15" s="52">
-        <v>2018</v>
-      </c>
-      <c r="J15" s="52">
-        <v>2017</v>
-      </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-    </row>
-    <row r="16" spans="2:26" ht="15" thickBot="1">
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="X15" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y15" s="27">
+        <f>SUM(Y13:Y14)</f>
+        <v>110205</v>
+      </c>
+      <c r="Z15" s="27">
+        <f t="shared" ref="Z15:AF15" si="3">SUM(Z13:Z14)</f>
+        <v>172642</v>
+      </c>
+      <c r="AA15" s="27">
+        <f t="shared" si="3"/>
+        <v>196525</v>
+      </c>
+      <c r="AB15" s="27">
+        <f t="shared" si="3"/>
+        <v>86924</v>
+      </c>
+      <c r="AC15" s="27">
+        <f t="shared" si="3"/>
+        <v>50042</v>
+      </c>
+      <c r="AD15" s="27">
+        <f t="shared" si="3"/>
+        <v>45132</v>
+      </c>
+      <c r="AE15" s="27">
+        <f t="shared" si="3"/>
+        <v>60572</v>
+      </c>
+      <c r="AF15" s="27">
+        <f t="shared" si="3"/>
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" ht="15.5" thickTop="1" thickBot="1">
       <c r="B16" s="26" t="s">
         <v>80</v>
       </c>
@@ -9557,16 +9943,16 @@
       <c r="J16" s="28">
         <v>584357</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
     </row>
     <row r="17" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B17" s="26" t="s">
@@ -9596,16 +9982,16 @@
       <c r="J17" s="28">
         <v>7740</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
     </row>
     <row r="18" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B18" s="26" t="s">
@@ -9635,16 +10021,16 @@
       <c r="J18" s="28">
         <v>12554</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
     </row>
     <row r="19" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B19" s="26" t="s">
@@ -9674,16 +10060,16 @@
       <c r="J19" s="28">
         <v>18465</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
     </row>
     <row r="20" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B20" s="26" t="s">
@@ -9713,16 +10099,16 @@
       <c r="J20" s="28">
         <v>11373</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
     </row>
     <row r="21" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B21" s="26"/>
@@ -9731,7 +10117,7 @@
         <v>940414</v>
       </c>
       <c r="D21" s="27">
-        <f t="shared" ref="D21:J21" si="2">SUM(D16:D20)</f>
+        <f t="shared" ref="D21:J21" si="4">SUM(D16:D20)</f>
         <v>840136</v>
       </c>
       <c r="E21" s="27">
@@ -9743,70 +10129,70 @@
         <v>772941</v>
       </c>
       <c r="G21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>811484</v>
       </c>
       <c r="H21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>781395</v>
       </c>
       <c r="I21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>667776</v>
       </c>
       <c r="J21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>634489</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
     </row>
     <row r="22" spans="2:22" ht="15" thickTop="1">
-      <c r="B22" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="52">
+      <c r="B22" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="40">
         <v>2024</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="40">
         <v>2023</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="40">
         <v>2022</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="40">
         <v>2021</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="40">
         <v>2020</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="40">
         <v>2019</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="40">
         <v>2018</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="40">
         <v>2017</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
     </row>
     <row r="23" spans="2:22" ht="15" thickBot="1">
       <c r="B23" s="26" t="s">
@@ -9865,13 +10251,13 @@
       <c r="J24" s="28">
         <v>16036</v>
       </c>
-      <c r="O24" s="43" t="e" vm="42">
+      <c r="O24" s="45" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
     </row>
     <row r="25" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B25" s="26" t="s">
@@ -9901,11 +10287,11 @@
       <c r="J25" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
     </row>
     <row r="26" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B26" s="26" t="s">
@@ -9935,11 +10321,11 @@
       <c r="J26" s="28">
         <v>7122</v>
       </c>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
     </row>
     <row r="27" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B27" s="26" t="s">
@@ -9969,11 +10355,11 @@
       <c r="J27" s="28">
         <v>1295</v>
       </c>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
     </row>
     <row r="28" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B28" s="26" t="s">
@@ -10003,11 +10389,11 @@
       <c r="J28" s="28">
         <v>8298</v>
       </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
     </row>
     <row r="29" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B29" s="26"/>
@@ -10016,72 +10402,72 @@
         <v>101873</v>
       </c>
       <c r="D29" s="27">
-        <f t="shared" ref="D29:J29" si="3">SUM(D23:D27)</f>
+        <f t="shared" ref="D29:J29" si="5">SUM(D23:D27)</f>
         <v>83714</v>
       </c>
       <c r="E29" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100421</v>
       </c>
       <c r="F29" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73818</v>
       </c>
       <c r="G29" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76585</v>
       </c>
       <c r="H29" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>67061</v>
       </c>
       <c r="I29" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56778</v>
       </c>
       <c r="J29" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43530</v>
       </c>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
     </row>
     <row r="30" spans="2:22" ht="15" thickTop="1">
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="40">
         <v>2024</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="40">
         <v>2023</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="40">
         <v>2022</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="40">
         <v>2021</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="40">
         <v>2020</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="40">
         <v>2019</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="40">
         <v>2018</v>
       </c>
-      <c r="J30" s="52">
+      <c r="J30" s="40">
         <v>2017</v>
       </c>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
     </row>
     <row r="31" spans="2:22" ht="15" thickBot="1">
       <c r="B31" s="26" t="s">
@@ -10111,11 +10497,11 @@
       <c r="J31" s="28">
         <v>338239</v>
       </c>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
     </row>
     <row r="32" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B32" s="26" t="s">
@@ -10145,11 +10531,11 @@
       <c r="J32" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
     </row>
     <row r="33" spans="2:10" ht="15.5" thickTop="1" thickBot="1">
       <c r="B33" s="26" t="s">
@@ -10390,31 +10776,31 @@
         <v>990101</v>
       </c>
       <c r="D41" s="27">
-        <f t="shared" ref="D41:J41" si="4">SUM(D31:D40)</f>
+        <f t="shared" ref="D41:J41" si="6">SUM(D31:D40)</f>
         <v>930209</v>
       </c>
       <c r="E41" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>838769</v>
       </c>
       <c r="F41" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>877796</v>
       </c>
       <c r="G41" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>878892</v>
       </c>
       <c r="H41" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>830959</v>
       </c>
       <c r="I41" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>761266</v>
       </c>
       <c r="J41" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>746761</v>
       </c>
     </row>
@@ -10432,12 +10818,30 @@
   <ignoredErrors>
     <ignoredError sqref="C14:D14 C6:G6 H6:J6 E14:J14 C21:J21 C29:J29 C41:J41" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="87cec1b9-bc0e-4c94-88a2-658576a3e2c6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3bcba1fa-c916-4888-8025-ab54e00f494e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005FDC41C831B3A14FBF4F00CDD75651EC" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ab8fcd7dcd0214559ce61446e1ff2c21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87cec1b9-bc0e-4c94-88a2-658576a3e2c6" xmlns:ns3="3bcba1fa-c916-4888-8025-ab54e00f494e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44af80f41ccb587c4d18f0236517ff87" ns2:_="" ns3:_="">
     <xsd:import namespace="87cec1b9-bc0e-4c94-88a2-658576a3e2c6"/>
@@ -10666,27 +11070,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="87cec1b9-bc0e-4c94-88a2-658576a3e2c6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3bcba1fa-c916-4888-8025-ab54e00f494e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26F7539C-1FF0-4381-A740-0D44AB0FA8BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="222d69de-66ef-4adb-874f-7546b117c70b"/>
+    <ds:schemaRef ds:uri="e9cabfa7-7313-4a2b-89fa-58574c404436"/>
+    <ds:schemaRef ds:uri="87cec1b9-bc0e-4c94-88a2-658576a3e2c6"/>
+    <ds:schemaRef ds:uri="3bcba1fa-c916-4888-8025-ab54e00f494e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7025612-0CA6-41C2-9356-3AD055AF7ABA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5CCB49C-1D40-4FEB-805A-3F8B1443AF15}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10703,25 +11108,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26F7539C-1FF0-4381-A740-0D44AB0FA8BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="222d69de-66ef-4adb-874f-7546b117c70b"/>
-    <ds:schemaRef ds:uri="e9cabfa7-7313-4a2b-89fa-58574c404436"/>
-    <ds:schemaRef ds:uri="87cec1b9-bc0e-4c94-88a2-658576a3e2c6"/>
-    <ds:schemaRef ds:uri="3bcba1fa-c916-4888-8025-ab54e00f494e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7025612-0CA6-41C2-9356-3AD055AF7ABA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>